--- a/data/egs_heat.xlsx
+++ b/data/egs_heat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\PycharmProjects\pythonProject\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0370218E-BE54-4EF9-AA7D-EDA0FE54D713}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAC67226-A186-45DE-ADAB-1EFDE6B152F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="alpha" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="v" sheetId="8" r:id="rId8"/>
     <sheet name="w" sheetId="9" r:id="rId9"/>
     <sheet name="valid_ranges" sheetId="10" r:id="rId10"/>
+    <sheet name="general_info" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="332">
   <si>
     <r>
       <t>β</t>
@@ -8831,13 +8832,52 @@
   </si>
   <si>
     <t xml:space="preserve">                </t>
+  </si>
+  <si>
+    <t>Parameters:</t>
+  </si>
+  <si>
+    <t>Douzciech et al. (2021)</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1021/acs.est.0c06751</t>
+  </si>
+  <si>
+    <t>Model source:</t>
+  </si>
+  <si>
+    <t>Table 1 for valid ranges of parameters</t>
+  </si>
+  <si>
+    <t>Name for Code</t>
+  </si>
+  <si>
+    <t>Long Name (for error messages)</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>MW</t>
+  </si>
+  <si>
+    <t>kW</t>
+  </si>
+  <si>
+    <t>Equations 4-10 for model definition and coefficients</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -8895,6 +8935,31 @@
       <name val="JetBrains Mono"/>
       <family val="3"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -8913,10 +8978,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -8938,8 +9004,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -9220,9 +9291,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25"/>
   <cols>
@@ -9329,31 +9398,31 @@
         <v>6.6443999999999989E-5</v>
       </c>
       <c r="C2">
-        <f t="shared" ref="C2:I2" si="0">C14*$R14</f>
+        <f>C14*$R14</f>
         <v>1.4464E-3</v>
       </c>
       <c r="D2">
-        <f t="shared" si="0"/>
+        <f>D14*$R14</f>
         <v>0</v>
       </c>
       <c r="E2">
-        <f t="shared" si="0"/>
+        <f>E14*$R14</f>
         <v>4.9041999999999998E-4</v>
       </c>
       <c r="F2">
-        <f t="shared" si="0"/>
+        <f>F14*$R14</f>
         <v>0</v>
       </c>
       <c r="G2">
-        <f t="shared" si="0"/>
+        <f>G14*$R14</f>
         <v>1.0362100000000001E-3</v>
       </c>
       <c r="H2">
-        <f t="shared" si="0"/>
+        <f>H14*$R14</f>
         <v>7.0511999999999992E-5</v>
       </c>
       <c r="I2">
-        <f t="shared" si="0"/>
+        <f>I14*$R14</f>
         <v>0</v>
       </c>
       <c r="J2">
@@ -9361,59 +9430,59 @@
         <v>6.6443999999999989E-5</v>
       </c>
       <c r="K2">
-        <f t="shared" ref="K2:Q2" si="1">C14*$R14</f>
+        <f>C14*$R14</f>
         <v>1.4464E-3</v>
       </c>
       <c r="L2">
-        <f t="shared" si="1"/>
+        <f>D14*$R14</f>
         <v>0</v>
       </c>
       <c r="M2">
-        <f t="shared" si="1"/>
+        <f>E14*$R14</f>
         <v>4.9041999999999998E-4</v>
       </c>
       <c r="N2">
-        <f t="shared" si="1"/>
+        <f>F14*$R14</f>
         <v>0</v>
       </c>
       <c r="O2">
-        <f t="shared" si="1"/>
+        <f>G14*$R14</f>
         <v>1.0362100000000001E-3</v>
       </c>
       <c r="P2">
-        <f t="shared" si="1"/>
+        <f>H14*$R14</f>
         <v>7.0511999999999992E-5</v>
       </c>
       <c r="Q2">
-        <f t="shared" si="1"/>
+        <f>I14*$R14</f>
         <v>0</v>
       </c>
       <c r="R2">
-        <f t="shared" ref="R2:X8" si="2">J14*$S14</f>
+        <f>J14*$S14</f>
         <v>0</v>
       </c>
       <c r="S2">
-        <f t="shared" si="2"/>
+        <f>K14*$S14</f>
         <v>1.65968E-5</v>
       </c>
       <c r="T2">
-        <f t="shared" si="2"/>
+        <f>L14*$S14</f>
         <v>4.3830619412627724E-4</v>
       </c>
       <c r="U2">
-        <f t="shared" si="2"/>
+        <f>M14*$S14</f>
         <v>1.3965600000000001E-6</v>
       </c>
       <c r="V2">
-        <f t="shared" si="2"/>
+        <f>N14*$S14</f>
         <v>1.4269200000000002E-7</v>
       </c>
       <c r="W2">
-        <f t="shared" si="2"/>
+        <f>O14*$S14</f>
         <v>2.9601000000000001E-7</v>
       </c>
       <c r="X2">
-        <f t="shared" si="2"/>
+        <f>P14*$S14</f>
         <v>1.31054E-7</v>
       </c>
       <c r="Y2">
@@ -9421,23 +9490,23 @@
         <v>4.3830619412627724E-4</v>
       </c>
       <c r="Z2">
-        <f t="shared" ref="Z2:AC8" si="3">M14*$S14</f>
+        <f>M14*$S14</f>
         <v>1.3965600000000001E-6</v>
       </c>
       <c r="AA2">
-        <f t="shared" si="3"/>
+        <f>N14*$S14</f>
         <v>1.4269200000000002E-7</v>
       </c>
       <c r="AB2">
-        <f t="shared" si="3"/>
+        <f>O14*$S14</f>
         <v>2.9601000000000001E-7</v>
       </c>
       <c r="AC2">
-        <f t="shared" si="3"/>
+        <f>P14*$S14</f>
         <v>1.31054E-7</v>
       </c>
       <c r="AD2">
-        <f t="shared" ref="AD2:AD8" si="4">Q14*$S14</f>
+        <f>Q14*$S14</f>
         <v>3.6786200000000005E-2</v>
       </c>
     </row>
@@ -9446,119 +9515,119 @@
         <v>23</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:I3" si="5">B15*$R15</f>
+        <f>B15*$R15</f>
         <v>3.4916999999999999E-4</v>
       </c>
       <c r="C3">
-        <f t="shared" si="5"/>
+        <f>C15*$R15</f>
         <v>1.00683E-4</v>
       </c>
       <c r="D3">
-        <f t="shared" si="5"/>
+        <f>D15*$R15</f>
         <v>0</v>
       </c>
       <c r="E3">
-        <f t="shared" si="5"/>
+        <f>E15*$R15</f>
         <v>1.2882E-5</v>
       </c>
       <c r="F3">
-        <f t="shared" si="5"/>
+        <f>F15*$R15</f>
         <v>2.8362999999999999E-5</v>
       </c>
       <c r="G3">
-        <f t="shared" si="5"/>
+        <f>G15*$R15</f>
         <v>7.5823000000000004E-4</v>
       </c>
       <c r="H3">
-        <f t="shared" si="5"/>
+        <f>H15*$R15</f>
         <v>1.05881E-4</v>
       </c>
       <c r="I3">
-        <f t="shared" si="5"/>
+        <f>I15*$R15</f>
         <v>4.2262000000000003E-5</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J8" si="6">B15*$R15</f>
+        <f>B15*$R15</f>
         <v>3.4916999999999999E-4</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K8" si="7">C15*$R15</f>
+        <f>C15*$R15</f>
         <v>1.00683E-4</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L8" si="8">D15*$R15</f>
+        <f>D15*$R15</f>
         <v>0</v>
       </c>
       <c r="M3">
-        <f t="shared" ref="M3:M8" si="9">E15*$R15</f>
+        <f>E15*$R15</f>
         <v>1.2882E-5</v>
       </c>
       <c r="N3">
-        <f t="shared" ref="N3:N8" si="10">F15*$R15</f>
+        <f>F15*$R15</f>
         <v>2.8362999999999999E-5</v>
       </c>
       <c r="O3">
-        <f t="shared" ref="O3:O8" si="11">G15*$R15</f>
+        <f>G15*$R15</f>
         <v>7.5823000000000004E-4</v>
       </c>
       <c r="P3">
-        <f t="shared" ref="P3:P8" si="12">H15*$R15</f>
+        <f>H15*$R15</f>
         <v>1.05881E-4</v>
       </c>
       <c r="Q3">
-        <f t="shared" ref="Q3:Q8" si="13">I15*$R15</f>
+        <f>I15*$R15</f>
         <v>4.2262000000000003E-5</v>
       </c>
       <c r="R3">
-        <f t="shared" si="2"/>
+        <f>J15*$S15</f>
         <v>4.1501699999999999E-3</v>
       </c>
       <c r="S3">
-        <f t="shared" si="2"/>
+        <f>K15*$S15</f>
         <v>4.0629600000000001E-5</v>
       </c>
       <c r="T3">
-        <f t="shared" si="2"/>
+        <f>L15*$S15</f>
         <v>7.3686624215410534E-5</v>
       </c>
       <c r="U3">
-        <f t="shared" si="2"/>
+        <f>M15*$S15</f>
         <v>1.68264E-6</v>
       </c>
       <c r="V3">
-        <f t="shared" si="2"/>
+        <f>N15*$S15</f>
         <v>1.0362600000000001E-6</v>
       </c>
       <c r="W3">
-        <f t="shared" si="2"/>
+        <f>O15*$S15</f>
         <v>3.4063200000000006E-7</v>
       </c>
       <c r="X3">
-        <f t="shared" si="2"/>
+        <f>P15*$S15</f>
         <v>1.41588E-8</v>
       </c>
       <c r="Y3">
-        <f t="shared" ref="Y3:Y8" si="14">L15*$S15</f>
+        <f>L15*$S15</f>
         <v>7.3686624215410534E-5</v>
       </c>
       <c r="Z3">
-        <f t="shared" si="3"/>
+        <f>M15*$S15</f>
         <v>1.68264E-6</v>
       </c>
       <c r="AA3">
-        <f t="shared" si="3"/>
+        <f>N15*$S15</f>
         <v>1.0362600000000001E-6</v>
       </c>
       <c r="AB3">
-        <f t="shared" si="3"/>
+        <f>O15*$S15</f>
         <v>3.4063200000000006E-7</v>
       </c>
       <c r="AC3">
-        <f t="shared" si="3"/>
+        <f>P15*$S15</f>
         <v>1.41588E-8</v>
       </c>
       <c r="AD3">
-        <f t="shared" si="4"/>
+        <f>Q15*$S15</f>
         <v>2.8368900000000002E-2</v>
       </c>
     </row>
@@ -9567,119 +9636,119 @@
         <v>25</v>
       </c>
       <c r="B4">
-        <f t="shared" ref="B4:I4" si="15">B16*$R16</f>
+        <f>B16*$R16</f>
         <v>7.7856999999999991E-4</v>
       </c>
       <c r="C4">
-        <f t="shared" si="15"/>
+        <f>C16*$R16</f>
         <v>1.7402000000000001E-2</v>
       </c>
       <c r="D4">
-        <f t="shared" si="15"/>
+        <f>D16*$R16</f>
         <v>0</v>
       </c>
       <c r="E4">
-        <f t="shared" si="15"/>
+        <f>E16*$R16</f>
         <v>8.8252999999999995E-3</v>
       </c>
       <c r="F4">
-        <f t="shared" si="15"/>
+        <f>F16*$R16</f>
         <v>1.5141999999999999E-2</v>
       </c>
       <c r="G4">
-        <f t="shared" si="15"/>
+        <f>G16*$R16</f>
         <v>1.2542999999999999E-2</v>
       </c>
       <c r="H4">
-        <f t="shared" si="15"/>
+        <f>H16*$R16</f>
         <v>1.0339500000000001E-3</v>
       </c>
       <c r="I4">
-        <f t="shared" si="15"/>
+        <f>I16*$R16</f>
         <v>2.3051999999999998E-4</v>
       </c>
       <c r="J4">
-        <f t="shared" si="6"/>
+        <f>B16*$R16</f>
         <v>7.7856999999999991E-4</v>
       </c>
       <c r="K4">
-        <f t="shared" si="7"/>
+        <f>C16*$R16</f>
         <v>1.7402000000000001E-2</v>
       </c>
       <c r="L4">
-        <f t="shared" si="8"/>
+        <f>D16*$R16</f>
         <v>0</v>
       </c>
       <c r="M4">
-        <f t="shared" si="9"/>
+        <f>E16*$R16</f>
         <v>8.8252999999999995E-3</v>
       </c>
       <c r="N4">
-        <f t="shared" si="10"/>
+        <f>F16*$R16</f>
         <v>1.5141999999999999E-2</v>
       </c>
       <c r="O4">
-        <f t="shared" si="11"/>
+        <f>G16*$R16</f>
         <v>1.2542999999999999E-2</v>
       </c>
       <c r="P4">
-        <f t="shared" si="12"/>
+        <f>H16*$R16</f>
         <v>1.0339500000000001E-3</v>
       </c>
       <c r="Q4">
-        <f t="shared" si="13"/>
+        <f>I16*$R16</f>
         <v>2.3051999999999998E-4</v>
       </c>
       <c r="R4">
-        <f t="shared" si="2"/>
+        <f>J16*$S16</f>
         <v>0</v>
       </c>
       <c r="S4">
-        <f t="shared" si="2"/>
+        <f>K16*$S16</f>
         <v>2.3546999999999999E-4</v>
       </c>
       <c r="T4">
-        <f t="shared" si="2"/>
+        <f>L16*$S16</f>
         <v>5.7680235508112297E-3</v>
       </c>
       <c r="U4">
-        <f t="shared" si="2"/>
+        <f>M16*$S16</f>
         <v>1.9338599999999998E-5</v>
       </c>
       <c r="V4">
-        <f t="shared" si="2"/>
+        <f>N16*$S16</f>
         <v>2.3096099999999997E-6</v>
       </c>
       <c r="W4">
-        <f t="shared" si="2"/>
+        <f>O16*$S16</f>
         <v>4.2033899999999996E-6</v>
       </c>
       <c r="X4">
-        <f t="shared" si="2"/>
+        <f>P16*$S16</f>
         <v>6.4127999999999998E-7</v>
       </c>
       <c r="Y4">
-        <f t="shared" si="14"/>
+        <f>L16*$S16</f>
         <v>5.7680235508112297E-3</v>
       </c>
       <c r="Z4">
-        <f t="shared" si="3"/>
+        <f>M16*$S16</f>
         <v>1.9338599999999998E-5</v>
       </c>
       <c r="AA4">
-        <f t="shared" si="3"/>
+        <f>N16*$S16</f>
         <v>2.3096099999999997E-6</v>
       </c>
       <c r="AB4">
-        <f t="shared" si="3"/>
+        <f>O16*$S16</f>
         <v>4.2033899999999996E-6</v>
       </c>
       <c r="AC4">
-        <f t="shared" si="3"/>
+        <f>P16*$S16</f>
         <v>6.4127999999999998E-7</v>
       </c>
       <c r="AD4">
-        <f t="shared" si="4"/>
+        <f>Q16*$S16</f>
         <v>0.261021</v>
       </c>
     </row>
@@ -9688,119 +9757,119 @@
         <v>22</v>
       </c>
       <c r="B5">
-        <f t="shared" ref="B5:I5" si="16">B17*$R17</f>
+        <f>B17*$R17</f>
         <v>2.3842999999999998E-6</v>
       </c>
       <c r="C5">
-        <f t="shared" si="16"/>
+        <f>C17*$R17</f>
         <v>1.07237E-5</v>
       </c>
       <c r="D5">
-        <f t="shared" si="16"/>
+        <f>D17*$R17</f>
         <v>0</v>
       </c>
       <c r="E5">
-        <f t="shared" si="16"/>
+        <f>E17*$R17</f>
         <v>2.7233E-7</v>
       </c>
       <c r="F5">
-        <f t="shared" si="16"/>
+        <f>F17*$R17</f>
         <v>0</v>
       </c>
       <c r="G5">
-        <f t="shared" si="16"/>
+        <f>G17*$R17</f>
         <v>1.00344E-5</v>
       </c>
       <c r="H5">
-        <f t="shared" si="16"/>
+        <f>H17*$R17</f>
         <v>5.7742999999999995E-7</v>
       </c>
       <c r="I5">
-        <f t="shared" si="16"/>
+        <f>I17*$R17</f>
         <v>0</v>
       </c>
       <c r="J5">
-        <f t="shared" si="6"/>
+        <f>B17*$R17</f>
         <v>2.3842999999999998E-6</v>
       </c>
       <c r="K5">
-        <f t="shared" si="7"/>
+        <f>C17*$R17</f>
         <v>1.07237E-5</v>
       </c>
       <c r="L5">
-        <f t="shared" si="8"/>
+        <f>D17*$R17</f>
         <v>0</v>
       </c>
       <c r="M5">
-        <f t="shared" si="9"/>
+        <f>E17*$R17</f>
         <v>2.7233E-7</v>
       </c>
       <c r="N5">
-        <f t="shared" si="10"/>
+        <f>F17*$R17</f>
         <v>0</v>
       </c>
       <c r="O5">
-        <f t="shared" si="11"/>
+        <f>G17*$R17</f>
         <v>1.00344E-5</v>
       </c>
       <c r="P5">
-        <f t="shared" si="12"/>
+        <f>H17*$R17</f>
         <v>5.7742999999999995E-7</v>
       </c>
       <c r="Q5">
-        <f t="shared" si="13"/>
+        <f>I17*$R17</f>
         <v>0</v>
       </c>
       <c r="R5">
-        <f t="shared" si="2"/>
+        <f>J17*$S17</f>
         <v>3.2164199999999999E-5</v>
       </c>
       <c r="S5">
-        <f t="shared" si="2"/>
+        <f>K17*$S17</f>
         <v>1.3026E-7</v>
       </c>
       <c r="T5">
-        <f t="shared" si="2"/>
+        <f>L17*$S17</f>
         <v>6.1525584541986449E-6</v>
       </c>
       <c r="U5">
-        <f t="shared" si="2"/>
+        <f>M17*$S17</f>
         <v>9.1182000000000002E-9</v>
       </c>
       <c r="V5">
-        <f t="shared" si="2"/>
+        <f>N17*$S17</f>
         <v>0</v>
       </c>
       <c r="W5">
-        <f t="shared" si="2"/>
+        <f>O17*$S17</f>
         <v>1.28256E-9</v>
       </c>
       <c r="X5">
-        <f t="shared" si="2"/>
+        <f>P17*$S17</f>
         <v>3.3116100000000003E-10</v>
       </c>
       <c r="Y5">
-        <f t="shared" si="14"/>
+        <f>L17*$S17</f>
         <v>6.1525584541986449E-6</v>
       </c>
       <c r="Z5">
-        <f t="shared" si="3"/>
+        <f>M17*$S17</f>
         <v>9.1182000000000002E-9</v>
       </c>
       <c r="AA5">
-        <f t="shared" si="3"/>
+        <f>N17*$S17</f>
         <v>0</v>
       </c>
       <c r="AB5">
-        <f t="shared" si="3"/>
+        <f>O17*$S17</f>
         <v>1.28256E-9</v>
       </c>
       <c r="AC5">
-        <f t="shared" si="3"/>
+        <f>P17*$S17</f>
         <v>3.3116100000000003E-10</v>
       </c>
       <c r="AD5">
-        <f t="shared" si="4"/>
+        <f>Q17*$S17</f>
         <v>3.0911699999999997E-4</v>
       </c>
     </row>
@@ -9809,119 +9878,119 @@
         <v>24</v>
       </c>
       <c r="B6">
-        <f t="shared" ref="B6:I6" si="17">B18*$R18</f>
+        <f>B18*$R18</f>
         <v>7.9890999999999988E-10</v>
       </c>
       <c r="C6">
-        <f t="shared" si="17"/>
+        <f>C18*$R18</f>
         <v>2.8927999999999998E-9</v>
       </c>
       <c r="D6">
-        <f t="shared" si="17"/>
+        <f>D18*$R18</f>
         <v>2.1695999999999999E-10</v>
       </c>
       <c r="E6">
-        <f t="shared" si="17"/>
+        <f>E18*$R18</f>
         <v>1.1638999999999999E-10</v>
       </c>
       <c r="F6">
-        <f t="shared" si="17"/>
+        <f>F18*$R18</f>
         <v>0</v>
       </c>
       <c r="G6">
-        <f t="shared" si="17"/>
+        <f>G18*$R18</f>
         <v>5.6612999999999999E-10</v>
       </c>
       <c r="H6">
-        <f t="shared" si="17"/>
+        <f>H18*$R18</f>
         <v>9.6501999999999996E-9</v>
       </c>
       <c r="I6">
-        <f t="shared" si="17"/>
+        <f>I18*$R18</f>
         <v>1.8079999999999998E-9</v>
       </c>
       <c r="J6">
-        <f t="shared" si="6"/>
+        <f>B18*$R18</f>
         <v>7.9890999999999988E-10</v>
       </c>
       <c r="K6">
-        <f t="shared" si="7"/>
+        <f>C18*$R18</f>
         <v>2.8927999999999998E-9</v>
       </c>
       <c r="L6">
-        <f t="shared" si="8"/>
+        <f>D18*$R18</f>
         <v>2.1695999999999999E-10</v>
       </c>
       <c r="M6">
-        <f t="shared" si="9"/>
+        <f>E18*$R18</f>
         <v>1.1638999999999999E-10</v>
       </c>
       <c r="N6">
-        <f t="shared" si="10"/>
+        <f>F18*$R18</f>
         <v>0</v>
       </c>
       <c r="O6">
-        <f t="shared" si="11"/>
+        <f>G18*$R18</f>
         <v>5.6612999999999999E-10</v>
       </c>
       <c r="P6">
-        <f t="shared" si="12"/>
+        <f>H18*$R18</f>
         <v>9.6501999999999996E-9</v>
       </c>
       <c r="Q6">
-        <f t="shared" si="13"/>
+        <f>I18*$R18</f>
         <v>1.8079999999999998E-9</v>
       </c>
       <c r="R6">
-        <f t="shared" si="2"/>
+        <f>J18*$S18</f>
         <v>5.7178000000000004E-8</v>
       </c>
       <c r="S6">
-        <f t="shared" si="2"/>
+        <f>K18*$S18</f>
         <v>5.3130000000000002E-10</v>
       </c>
       <c r="T6">
-        <f t="shared" si="2"/>
+        <f>L18*$S18</f>
         <v>4.0335266218962475E-10</v>
       </c>
       <c r="U6">
-        <f t="shared" si="2"/>
+        <f>M18*$S18</f>
         <v>1.19922E-10</v>
       </c>
       <c r="V6">
-        <f t="shared" si="2"/>
+        <f>N18*$S18</f>
         <v>3.8253600000000006E-12</v>
       </c>
       <c r="W6">
-        <f t="shared" si="2"/>
+        <f>O18*$S18</f>
         <v>4.9082000000000004E-12</v>
       </c>
       <c r="X6">
-        <f t="shared" si="2"/>
+        <f>P18*$S18</f>
         <v>7.0839999999999999E-13</v>
       </c>
       <c r="Y6">
-        <f t="shared" si="14"/>
+        <f>L18*$S18</f>
         <v>4.0335266218962475E-10</v>
       </c>
       <c r="Z6">
-        <f t="shared" si="3"/>
+        <f>M18*$S18</f>
         <v>1.19922E-10</v>
       </c>
       <c r="AA6">
-        <f t="shared" si="3"/>
+        <f>N18*$S18</f>
         <v>3.8253600000000006E-12</v>
       </c>
       <c r="AB6">
-        <f t="shared" si="3"/>
+        <f>O18*$S18</f>
         <v>4.9082000000000004E-12</v>
       </c>
       <c r="AC6">
-        <f t="shared" si="3"/>
+        <f>P18*$S18</f>
         <v>7.0839999999999999E-13</v>
       </c>
       <c r="AD6">
-        <f t="shared" si="4"/>
+        <f>Q18*$S18</f>
         <v>2.0948400000000001E-6</v>
       </c>
     </row>
@@ -9930,119 +9999,119 @@
         <v>21</v>
       </c>
       <c r="B7">
-        <f t="shared" ref="B7:I7" si="18">B19*$R19</f>
+        <f>B19*$R19</f>
         <v>3.8081E-10</v>
       </c>
       <c r="C7">
-        <f t="shared" si="18"/>
+        <f>C19*$R19</f>
         <v>7.0398999999999989E-11</v>
       </c>
       <c r="D7">
-        <f t="shared" si="18"/>
+        <f>D19*$R19</f>
         <v>0</v>
       </c>
       <c r="E7">
-        <f t="shared" si="18"/>
+        <f>E19*$R19</f>
         <v>3.0283999999999995E-12</v>
       </c>
       <c r="F7">
-        <f t="shared" si="18"/>
+        <f>F19*$R19</f>
         <v>4.4860999999999996E-12</v>
       </c>
       <c r="G7">
-        <f t="shared" si="18"/>
+        <f>G19*$R19</f>
         <v>2.4181999999999999E-11</v>
       </c>
       <c r="H7">
-        <f t="shared" si="18"/>
+        <f>H19*$R19</f>
         <v>3.3221999999999994E-11</v>
       </c>
       <c r="I7">
-        <f t="shared" si="18"/>
+        <f>I19*$R19</f>
         <v>8.0116999999999991E-12</v>
       </c>
       <c r="J7">
-        <f t="shared" si="6"/>
+        <f>B19*$R19</f>
         <v>3.8081E-10</v>
       </c>
       <c r="K7">
-        <f t="shared" si="7"/>
+        <f>C19*$R19</f>
         <v>7.0398999999999989E-11</v>
       </c>
       <c r="L7">
-        <f t="shared" si="8"/>
+        <f>D19*$R19</f>
         <v>0</v>
       </c>
       <c r="M7">
-        <f t="shared" si="9"/>
+        <f>E19*$R19</f>
         <v>3.0283999999999995E-12</v>
       </c>
       <c r="N7">
-        <f t="shared" si="10"/>
+        <f>F19*$R19</f>
         <v>4.4860999999999996E-12</v>
       </c>
       <c r="O7">
-        <f t="shared" si="11"/>
+        <f>G19*$R19</f>
         <v>2.4181999999999999E-11</v>
       </c>
       <c r="P7">
-        <f t="shared" si="12"/>
+        <f>H19*$R19</f>
         <v>3.3221999999999994E-11</v>
       </c>
       <c r="Q7">
-        <f t="shared" si="13"/>
+        <f>I19*$R19</f>
         <v>8.0116999999999991E-12</v>
       </c>
       <c r="R7">
-        <f t="shared" si="2"/>
+        <f>J19*$S19</f>
         <v>9.4848000000000002E-10</v>
       </c>
       <c r="S7">
-        <f t="shared" si="2"/>
+        <f>K19*$S19</f>
         <v>7.1135999999999999E-12</v>
       </c>
       <c r="T7">
-        <f t="shared" si="2"/>
+        <f>L19*$S19</f>
         <v>9.4248879827683697E-12</v>
       </c>
       <c r="U7">
-        <f t="shared" si="2"/>
+        <f>M19*$S19</f>
         <v>1.9957599999999998E-13</v>
       </c>
       <c r="V7">
-        <f t="shared" si="2"/>
+        <f>N19*$S19</f>
         <v>1.7388800000000001E-13</v>
       </c>
       <c r="W7">
-        <f t="shared" si="2"/>
+        <f>O19*$S19</f>
         <v>5.8292000000000003E-14</v>
       </c>
       <c r="X7">
-        <f t="shared" si="2"/>
+        <f>P19*$S19</f>
         <v>6.4713999999999994E-15</v>
       </c>
       <c r="Y7">
-        <f t="shared" si="14"/>
+        <f>L19*$S19</f>
         <v>9.4248879827683697E-12</v>
       </c>
       <c r="Z7">
-        <f t="shared" si="3"/>
+        <f>M19*$S19</f>
         <v>1.9957599999999998E-13</v>
       </c>
       <c r="AA7">
-        <f t="shared" si="3"/>
+        <f>N19*$S19</f>
         <v>1.7388800000000001E-13</v>
       </c>
       <c r="AB7">
-        <f t="shared" si="3"/>
+        <f>O19*$S19</f>
         <v>5.8292000000000003E-14</v>
       </c>
       <c r="AC7">
-        <f t="shared" si="3"/>
+        <f>P19*$S19</f>
         <v>6.4713999999999994E-15</v>
       </c>
       <c r="AD7">
-        <f t="shared" si="4"/>
+        <f>Q19*$S19</f>
         <v>5.9773999999999996E-9</v>
       </c>
     </row>
@@ -10051,119 +10120,119 @@
         <v>20</v>
       </c>
       <c r="B8">
-        <f t="shared" ref="B8:I8" si="19">B20*$R20</f>
+        <f>B20*$R20</f>
         <v>3.8081000000000003E-12</v>
       </c>
       <c r="C8">
-        <f t="shared" si="19"/>
+        <f>C20*$R20</f>
         <v>2.2712999999999998E-12</v>
       </c>
       <c r="D8">
-        <f t="shared" si="19"/>
+        <f>D20*$R20</f>
         <v>4.3279000000000002E-13</v>
       </c>
       <c r="E8">
-        <f t="shared" si="19"/>
+        <f>E20*$R20</f>
         <v>5.9663999999999997E-13</v>
       </c>
       <c r="F8">
-        <f t="shared" si="19"/>
+        <f>F20*$R20</f>
         <v>6.7234999999999996E-13</v>
       </c>
       <c r="G8">
-        <f t="shared" si="19"/>
+        <f>G20*$R20</f>
         <v>2.3503999999999998E-12</v>
       </c>
       <c r="H8">
-        <f t="shared" si="19"/>
+        <f>H20*$R20</f>
         <v>2.4972999999999999E-12</v>
       </c>
       <c r="I8">
-        <f t="shared" si="19"/>
+        <f>I20*$R20</f>
         <v>2.4972999999999999E-12</v>
       </c>
       <c r="J8">
-        <f t="shared" si="6"/>
+        <f>B20*$R20</f>
         <v>3.8081000000000003E-12</v>
       </c>
       <c r="K8">
-        <f t="shared" si="7"/>
+        <f>C20*$R20</f>
         <v>2.2712999999999998E-12</v>
       </c>
       <c r="L8">
-        <f t="shared" si="8"/>
+        <f>D20*$R20</f>
         <v>4.3279000000000002E-13</v>
       </c>
       <c r="M8">
-        <f t="shared" si="9"/>
+        <f>E20*$R20</f>
         <v>5.9663999999999997E-13</v>
       </c>
       <c r="N8">
-        <f t="shared" si="10"/>
+        <f>F20*$R20</f>
         <v>6.7234999999999996E-13</v>
       </c>
       <c r="O8">
-        <f t="shared" si="11"/>
+        <f>G20*$R20</f>
         <v>2.3503999999999998E-12</v>
       </c>
       <c r="P8">
-        <f t="shared" si="12"/>
+        <f>H20*$R20</f>
         <v>2.4972999999999999E-12</v>
       </c>
       <c r="Q8">
-        <f t="shared" si="13"/>
+        <f>I20*$R20</f>
         <v>2.4972999999999999E-12</v>
       </c>
       <c r="R8">
-        <f t="shared" si="2"/>
+        <f>J20*$S20</f>
         <v>2.5704500000000002E-10</v>
       </c>
       <c r="S8">
-        <f t="shared" si="2"/>
+        <f>K20*$S20</f>
         <v>2.5098500000000003E-12</v>
       </c>
       <c r="T8">
-        <f t="shared" si="2"/>
+        <f>L20*$S20</f>
         <v>6.6446578686277062E-13</v>
       </c>
       <c r="U8">
-        <f t="shared" si="2"/>
+        <f>M20*$S20</f>
         <v>4.8884000000000002E-14</v>
       </c>
       <c r="V8">
-        <f t="shared" si="2"/>
+        <f>N20*$S20</f>
         <v>4.9388999999999995E-14</v>
       </c>
       <c r="W8">
-        <f t="shared" si="2"/>
+        <f>O20*$S20</f>
         <v>2.0856500000000001E-14</v>
       </c>
       <c r="X8">
-        <f t="shared" si="2"/>
+        <f>P20*$S20</f>
         <v>3.2421E-16</v>
       </c>
       <c r="Y8">
-        <f t="shared" si="14"/>
+        <f>L20*$S20</f>
         <v>6.6446578686277062E-13</v>
       </c>
       <c r="Z8">
-        <f t="shared" si="3"/>
+        <f>M20*$S20</f>
         <v>4.8884000000000002E-14</v>
       </c>
       <c r="AA8">
-        <f t="shared" si="3"/>
+        <f>N20*$S20</f>
         <v>4.9388999999999995E-14</v>
       </c>
       <c r="AB8">
-        <f t="shared" si="3"/>
+        <f>O20*$S20</f>
         <v>2.0856500000000001E-14</v>
       </c>
       <c r="AC8">
-        <f t="shared" si="3"/>
+        <f>P20*$S20</f>
         <v>3.2421E-16</v>
       </c>
       <c r="AD8">
-        <f t="shared" si="4"/>
+        <f>Q20*$S20</f>
         <v>1.1716E-9</v>
       </c>
     </row>
@@ -10676,8 +10745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{567DC862-C7F7-48DA-99EF-AFC3F80D5034}">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -10992,6 +11061,296 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17BD8306-58BB-4967-BB2D-EA4B03563E9E}">
+  <dimension ref="A1:D28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="19.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.59765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="9" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="9" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>165</v>
+      </c>
+      <c r="B8" t="s">
+        <v>304</v>
+      </c>
+      <c r="C8" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>166</v>
+      </c>
+      <c r="B9" t="s">
+        <v>305</v>
+      </c>
+      <c r="C9" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>167</v>
+      </c>
+      <c r="B10" t="s">
+        <v>306</v>
+      </c>
+      <c r="C10" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>168</v>
+      </c>
+      <c r="B11" t="s">
+        <v>307</v>
+      </c>
+      <c r="C11" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>169</v>
+      </c>
+      <c r="B12" t="s">
+        <v>308</v>
+      </c>
+      <c r="C12" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>170</v>
+      </c>
+      <c r="B13" t="s">
+        <v>309</v>
+      </c>
+      <c r="C13" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>171</v>
+      </c>
+      <c r="B14" t="s">
+        <v>310</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>172</v>
+      </c>
+      <c r="B15" t="s">
+        <v>311</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>173</v>
+      </c>
+      <c r="B16" t="s">
+        <v>312</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>174</v>
+      </c>
+      <c r="B17" t="s">
+        <v>313</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>175</v>
+      </c>
+      <c r="B18" t="s">
+        <v>314</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>176</v>
+      </c>
+      <c r="B19" t="s">
+        <v>315</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>177</v>
+      </c>
+      <c r="B20" t="s">
+        <v>316</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>164</v>
+      </c>
+      <c r="B21" t="s">
+        <v>317</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="D22" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="D23" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="D24" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="D25" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="D26" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="D27" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="D28" t="s">
+        <v>303</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{BBD8DF2E-8395-45AD-8D16-644140711CAA}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
